--- a/app/tables/femaleClients/forms/client6Week/client6Week.xlsx
+++ b/app/tables/femaleClients/forms/client6Week/client6Week.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="760" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="29880" yWindow="760" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="343">
   <si>
     <t>type</t>
   </si>
@@ -991,6 +991,69 @@
   </si>
   <si>
     <t>clause</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a888</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a666</t>
+  </si>
+  <si>
+    <t>a777</t>
+  </si>
+  <si>
+    <t>a999</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
   </si>
 </sst>
 </file>
@@ -1083,9 +1146,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1149,9 +1216,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -2295,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2304,8 +2375,7 @@
     <col min="1" max="1" width="16.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="51.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="21.5" style="2"/>
+    <col min="4" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2323,8 +2393,8 @@
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>170</v>
@@ -2334,8 +2404,8 @@
       <c r="A3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
+      <c r="B3" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>171</v>
@@ -2345,8 +2415,8 @@
       <c r="A4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
+      <c r="B4" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -2356,8 +2426,8 @@
       <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="1">
-        <v>888</v>
+      <c r="B5" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -2367,8 +2437,8 @@
       <c r="A6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
+      <c r="B6" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>173</v>
@@ -2378,8 +2448,8 @@
       <c r="A7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
+      <c r="B7" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>174</v>
@@ -2389,8 +2459,8 @@
       <c r="A8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="1">
-        <v>3</v>
+      <c r="B8" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>255</v>
@@ -2400,8 +2470,8 @@
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="1">
-        <v>4</v>
+      <c r="B9" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>223</v>
@@ -2411,8 +2481,8 @@
       <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="1">
-        <v>5</v>
+      <c r="B10" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>175</v>
@@ -2422,8 +2492,8 @@
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="1">
-        <v>6</v>
+      <c r="B11" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -2433,8 +2503,8 @@
       <c r="A12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="1">
-        <v>888</v>
+      <c r="B12" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -2444,8 +2514,8 @@
       <c r="A13" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
+      <c r="B13" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>177</v>
@@ -2455,8 +2525,8 @@
       <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
+      <c r="B14" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>178</v>
@@ -2466,8 +2536,8 @@
       <c r="A15" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="1">
-        <v>3</v>
+      <c r="B15" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>179</v>
@@ -2477,8 +2547,8 @@
       <c r="A16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="1">
-        <v>4</v>
+      <c r="B16" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>180</v>
@@ -2488,8 +2558,8 @@
       <c r="A17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="1">
-        <v>5</v>
+      <c r="B17" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>181</v>
@@ -2499,8 +2569,8 @@
       <c r="A18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="1">
-        <v>6</v>
+      <c r="B18" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>182</v>
@@ -2510,8 +2580,8 @@
       <c r="A19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="1">
-        <v>7</v>
+      <c r="B19" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>183</v>
@@ -2521,8 +2591,8 @@
       <c r="A20" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="1">
-        <v>8</v>
+      <c r="B20" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>184</v>
@@ -2532,8 +2602,8 @@
       <c r="A21" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="1">
-        <v>9</v>
+      <c r="B21" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>185</v>
@@ -2543,8 +2613,8 @@
       <c r="A22" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="1">
-        <v>10</v>
+      <c r="B22" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -2554,8 +2624,8 @@
       <c r="A23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="1">
-        <v>888</v>
+      <c r="B23" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -2565,8 +2635,8 @@
       <c r="A24" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
+      <c r="B24" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>186</v>
@@ -2576,8 +2646,8 @@
       <c r="A25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="1">
-        <v>2</v>
+      <c r="B25" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>187</v>
@@ -2587,8 +2657,8 @@
       <c r="A26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="1">
-        <v>3</v>
+      <c r="B26" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>188</v>
@@ -2598,8 +2668,8 @@
       <c r="A27" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="1">
-        <v>4</v>
+      <c r="B27" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>189</v>
@@ -2609,8 +2679,8 @@
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="1">
-        <v>5</v>
+      <c r="B28" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>190</v>
@@ -2620,8 +2690,8 @@
       <c r="A29" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="1">
-        <v>6</v>
+      <c r="B29" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>191</v>
@@ -2631,8 +2701,8 @@
       <c r="A30" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="1">
-        <v>7</v>
+      <c r="B30" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>192</v>
@@ -2642,8 +2712,8 @@
       <c r="A31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="1">
-        <v>8</v>
+      <c r="B31" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -2653,8 +2723,8 @@
       <c r="A32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="1">
-        <v>9</v>
+      <c r="B32" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>193</v>
@@ -2664,8 +2734,8 @@
       <c r="A33" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="1">
-        <v>888</v>
+      <c r="B33" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>23</v>
@@ -2675,8 +2745,8 @@
       <c r="A34" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="1">
-        <v>0</v>
+      <c r="B34" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>124</v>
@@ -2686,8 +2756,8 @@
       <c r="A35" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
+      <c r="B35" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>198</v>
@@ -2697,8 +2767,8 @@
       <c r="A36" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B36" s="1">
-        <v>2</v>
+      <c r="B36" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>199</v>
@@ -2708,8 +2778,8 @@
       <c r="A37" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="1">
-        <v>3</v>
+      <c r="B37" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>200</v>
@@ -2719,8 +2789,8 @@
       <c r="A38" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="1">
-        <v>4</v>
+      <c r="B38" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>201</v>
@@ -2730,8 +2800,8 @@
       <c r="A39" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="1">
-        <v>5</v>
+      <c r="B39" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>21</v>
@@ -2741,8 +2811,8 @@
       <c r="A40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="1">
-        <v>888</v>
+      <c r="B40" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>23</v>
@@ -2752,8 +2822,8 @@
       <c r="A41" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B41" s="1">
-        <v>1</v>
+      <c r="B41" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>20</v>
@@ -2763,8 +2833,8 @@
       <c r="A42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="1">
-        <v>0</v>
+      <c r="B42" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>19</v>
@@ -2774,8 +2844,8 @@
       <c r="A43" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="1">
-        <v>2</v>
+      <c r="B43" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>208</v>
@@ -2785,8 +2855,8 @@
       <c r="A44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B44" s="1">
-        <v>888</v>
+      <c r="B44" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
@@ -2796,8 +2866,8 @@
       <c r="A45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="2">
-        <v>0</v>
+      <c r="B45" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
@@ -2807,8 +2877,8 @@
       <c r="A46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="2">
-        <v>1</v>
+      <c r="B46" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -2818,8 +2888,8 @@
       <c r="A47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="2">
-        <v>2</v>
+      <c r="B47" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
@@ -2829,8 +2899,8 @@
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="2">
-        <v>3</v>
+      <c r="B48" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
@@ -2840,8 +2910,8 @@
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="1">
-        <v>1</v>
+      <c r="B49" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>29</v>
@@ -2851,8 +2921,8 @@
       <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="1">
-        <v>2</v>
+      <c r="B50" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>30</v>
@@ -2862,8 +2932,8 @@
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="1">
-        <v>1</v>
+      <c r="B51" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2873,8 +2943,8 @@
       <c r="A52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="1">
-        <v>2</v>
+      <c r="B52" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>33</v>
@@ -2884,8 +2954,8 @@
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="1">
-        <v>3</v>
+      <c r="B53" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>34</v>
@@ -2895,8 +2965,8 @@
       <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="1">
-        <v>4</v>
+      <c r="B54" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>35</v>
@@ -2906,8 +2976,8 @@
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="1">
-        <v>5</v>
+      <c r="B55" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>37</v>
@@ -2917,8 +2987,8 @@
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="1">
-        <v>888</v>
+      <c r="B56" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>36</v>
@@ -2928,8 +2998,8 @@
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="2">
-        <v>1</v>
+      <c r="B57" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
@@ -2939,8 +3009,8 @@
       <c r="A58" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="2">
-        <v>0</v>
+      <c r="B58" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
@@ -2950,8 +3020,8 @@
       <c r="A59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="1">
-        <v>888</v>
+      <c r="B59" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>36</v>
@@ -2961,8 +3031,8 @@
       <c r="A60" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="1">
-        <v>1</v>
+      <c r="B60" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -2972,8 +3042,8 @@
       <c r="A61" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="1">
-        <v>666</v>
+      <c r="B61" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>42</v>
@@ -2983,8 +3053,8 @@
       <c r="A62" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="1">
-        <v>777</v>
+      <c r="B62" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>43</v>
@@ -2994,8 +3064,8 @@
       <c r="A63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="1">
-        <v>888</v>
+      <c r="B63" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>23</v>
@@ -3005,8 +3075,8 @@
       <c r="A64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="1">
-        <v>999</v>
+      <c r="B64" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>22</v>
@@ -3016,8 +3086,8 @@
       <c r="A65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="2">
-        <v>0</v>
+      <c r="B65" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
@@ -3027,8 +3097,8 @@
       <c r="A66" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="2">
-        <v>1</v>
+      <c r="B66" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>20</v>
@@ -3038,8 +3108,8 @@
       <c r="A67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="2">
-        <v>2</v>
+      <c r="B67" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>44</v>
@@ -3049,8 +3119,8 @@
       <c r="A68" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="1">
-        <v>999</v>
+      <c r="B68" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>22</v>
@@ -3060,8 +3130,8 @@
       <c r="A69" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="2">
-        <v>1</v>
+      <c r="B69" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
@@ -3071,8 +3141,8 @@
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="2">
-        <v>0</v>
+      <c r="B70" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
@@ -3082,8 +3152,8 @@
       <c r="A71" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="1">
-        <v>888</v>
+      <c r="B71" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>36</v>
@@ -3093,8 +3163,8 @@
       <c r="A72" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="1">
-        <v>999</v>
+      <c r="B72" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>22</v>
@@ -3104,8 +3174,8 @@
       <c r="A73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="2">
-        <v>1</v>
+      <c r="B73" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -3115,8 +3185,8 @@
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="2">
-        <v>0</v>
+      <c r="B74" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
@@ -3126,8 +3196,8 @@
       <c r="A75" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="2">
-        <v>1</v>
+      <c r="B75" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>47</v>
@@ -3137,8 +3207,8 @@
       <c r="A76" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B76" s="2">
-        <v>2</v>
+      <c r="B76" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>48</v>
@@ -3148,8 +3218,8 @@
       <c r="A77" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="1">
-        <v>888</v>
+      <c r="B77" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>36</v>
@@ -3159,8 +3229,8 @@
       <c r="A78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="1">
-        <v>999</v>
+      <c r="B78" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>22</v>
@@ -3170,8 +3240,8 @@
       <c r="A79" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="2">
-        <v>1</v>
+      <c r="B79" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>51</v>
@@ -3181,8 +3251,8 @@
       <c r="A80" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B80" s="2">
-        <v>0</v>
+      <c r="B80" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>52</v>
@@ -3192,8 +3262,8 @@
       <c r="A81" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="2">
-        <v>2</v>
+      <c r="B81" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>53</v>
@@ -3203,8 +3273,8 @@
       <c r="A82" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="1">
-        <v>888</v>
+      <c r="B82" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>36</v>
@@ -3214,8 +3284,8 @@
       <c r="A83" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="1">
-        <v>999</v>
+      <c r="B83" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>22</v>
@@ -3225,8 +3295,8 @@
       <c r="A84" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="1">
-        <v>1</v>
+      <c r="B84" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>55</v>
@@ -3236,8 +3306,8 @@
       <c r="A85" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="1">
-        <v>2</v>
+      <c r="B85" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>56</v>
@@ -3247,8 +3317,8 @@
       <c r="A86" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="1">
-        <v>3</v>
+      <c r="B86" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>57</v>
@@ -3258,8 +3328,8 @@
       <c r="A87" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="1">
-        <v>4</v>
+      <c r="B87" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>21</v>
@@ -3269,8 +3339,8 @@
       <c r="A88" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B88" s="1">
-        <v>888</v>
+      <c r="B88" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>36</v>
@@ -3280,8 +3350,8 @@
       <c r="A89" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="1">
-        <v>999</v>
+      <c r="B89" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>22</v>
@@ -3291,8 +3361,8 @@
       <c r="A90" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B90" s="2">
-        <v>1</v>
+      <c r="B90" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>59</v>
@@ -3302,8 +3372,8 @@
       <c r="A91" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B91" s="2">
-        <v>0</v>
+      <c r="B91" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>60</v>
@@ -3313,8 +3383,8 @@
       <c r="A92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B92" s="2">
-        <v>2</v>
+      <c r="B92" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>243</v>
@@ -3324,8 +3394,8 @@
       <c r="A93" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B93" s="1">
-        <v>888</v>
+      <c r="B93" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>36</v>
@@ -3335,8 +3405,8 @@
       <c r="A94" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B94" s="1">
-        <v>999</v>
+      <c r="B94" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>22</v>
@@ -3346,8 +3416,8 @@
       <c r="A95" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B95" s="1">
-        <v>1</v>
+      <c r="B95" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>62</v>
@@ -3357,8 +3427,8 @@
       <c r="A96" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B96" s="1">
-        <v>2</v>
+      <c r="B96" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>63</v>
@@ -3368,8 +3438,8 @@
       <c r="A97" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B97" s="1">
-        <v>3</v>
+      <c r="B97" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>64</v>
@@ -3379,8 +3449,8 @@
       <c r="A98" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B98" s="1">
-        <v>4</v>
+      <c r="B98" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>65</v>
@@ -3390,8 +3460,8 @@
       <c r="A99" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B99" s="1">
-        <v>5</v>
+      <c r="B99" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>66</v>
@@ -3401,8 +3471,8 @@
       <c r="A100" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B100" s="1">
-        <v>6</v>
+      <c r="B100" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>67</v>
@@ -3412,8 +3482,8 @@
       <c r="A101" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B101" s="1">
-        <v>7</v>
+      <c r="B101" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>21</v>
@@ -3423,8 +3493,8 @@
       <c r="A102" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B102" s="1">
-        <v>888</v>
+      <c r="B102" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>68</v>
@@ -3434,8 +3504,8 @@
       <c r="A103" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="1">
-        <v>1</v>
+      <c r="B103" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>62</v>
@@ -3445,8 +3515,8 @@
       <c r="A104" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B104" s="1">
-        <v>2</v>
+      <c r="B104" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>63</v>
@@ -3456,8 +3526,8 @@
       <c r="A105" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B105" s="1">
-        <v>3</v>
+      <c r="B105" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>64</v>
@@ -3467,8 +3537,8 @@
       <c r="A106" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B106" s="1">
-        <v>4</v>
+      <c r="B106" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>65</v>
@@ -3478,8 +3548,8 @@
       <c r="A107" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B107" s="1">
-        <v>5</v>
+      <c r="B107" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>66</v>
@@ -3489,8 +3559,8 @@
       <c r="A108" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="1">
-        <v>6</v>
+      <c r="B108" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>67</v>
@@ -3500,8 +3570,8 @@
       <c r="A109" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B109" s="1">
-        <v>7</v>
+      <c r="B109" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>21</v>
@@ -3511,8 +3581,8 @@
       <c r="A110" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B110" s="1">
-        <v>8</v>
+      <c r="B110" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>70</v>
@@ -3522,8 +3592,8 @@
       <c r="A111" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B111" s="1">
-        <v>888</v>
+      <c r="B111" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>68</v>
@@ -3533,8 +3603,8 @@
       <c r="A112" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="2">
-        <v>1</v>
+      <c r="B112" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
@@ -3544,8 +3614,8 @@
       <c r="A113" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B113" s="2">
-        <v>0</v>
+      <c r="B113" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
@@ -3555,8 +3625,8 @@
       <c r="A114" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B114" s="1">
-        <v>666</v>
+      <c r="B114" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>72</v>
@@ -3566,8 +3636,8 @@
       <c r="A115" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="1">
-        <v>888</v>
+      <c r="B115" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>36</v>
@@ -3577,8 +3647,8 @@
       <c r="A116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="1">
-        <v>999</v>
+      <c r="B116" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>22</v>
@@ -3588,7 +3658,7 @@
       <c r="A117" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3610,8 +3680,8 @@
       <c r="A119" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B119" s="1">
-        <v>777</v>
+      <c r="B119" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>74</v>
@@ -3621,8 +3691,8 @@
       <c r="A120" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B120" s="1">
-        <v>888</v>
+      <c r="B120" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>36</v>
@@ -3632,8 +3702,8 @@
       <c r="A121" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B121" s="1">
-        <v>999</v>
+      <c r="B121" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>22</v>
@@ -3643,8 +3713,8 @@
       <c r="A122" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B122" s="1">
-        <v>1</v>
+      <c r="B122" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>76</v>
@@ -3654,8 +3724,8 @@
       <c r="A123" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B123" s="1">
-        <v>2</v>
+      <c r="B123" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>77</v>
@@ -3665,8 +3735,8 @@
       <c r="A124" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="1">
-        <v>3</v>
+      <c r="B124" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>78</v>
@@ -3676,8 +3746,8 @@
       <c r="A125" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B125" s="1">
-        <v>888</v>
+      <c r="B125" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>23</v>
@@ -3687,8 +3757,8 @@
       <c r="A126" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B126" s="1">
-        <v>999</v>
+      <c r="B126" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>22</v>
@@ -3698,8 +3768,8 @@
       <c r="A127" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B127" s="1">
-        <v>1</v>
+      <c r="B127" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>80</v>
@@ -3709,8 +3779,8 @@
       <c r="A128" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B128" s="1">
-        <v>2</v>
+      <c r="B128" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>81</v>
@@ -3720,8 +3790,8 @@
       <c r="A129" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B129" s="1">
-        <v>3</v>
+      <c r="B129" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>82</v>
@@ -3731,8 +3801,8 @@
       <c r="A130" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B130" s="1">
-        <v>4</v>
+      <c r="B130" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>83</v>
@@ -3742,8 +3812,8 @@
       <c r="A131" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B131" s="1">
-        <v>5</v>
+      <c r="B131" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>84</v>
@@ -3753,8 +3823,8 @@
       <c r="A132" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B132" s="1">
-        <v>6</v>
+      <c r="B132" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>21</v>
@@ -3764,8 +3834,8 @@
       <c r="A133" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B133" s="1">
-        <v>888</v>
+      <c r="B133" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -3775,8 +3845,8 @@
       <c r="A134" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B134" s="1">
-        <v>1</v>
+      <c r="B134" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>85</v>
@@ -3786,8 +3856,8 @@
       <c r="A135" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B135" s="1">
-        <v>2</v>
+      <c r="B135" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>86</v>
@@ -3797,8 +3867,8 @@
       <c r="A136" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B136" s="1">
-        <v>3</v>
+      <c r="B136" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>87</v>
@@ -3808,8 +3878,8 @@
       <c r="A137" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B137" s="1">
-        <v>4</v>
+      <c r="B137" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>88</v>
@@ -3819,8 +3889,8 @@
       <c r="A138" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B138" s="1">
-        <v>5</v>
+      <c r="B138" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>89</v>
@@ -3830,8 +3900,8 @@
       <c r="A139" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B139" s="1">
-        <v>6</v>
+      <c r="B139" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>90</v>
@@ -3841,8 +3911,8 @@
       <c r="A140" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B140" s="1">
-        <v>7</v>
+      <c r="B140" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>91</v>
@@ -3852,8 +3922,8 @@
       <c r="A141" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B141" s="1">
-        <v>8</v>
+      <c r="B141" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>92</v>
@@ -3863,8 +3933,8 @@
       <c r="A142" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B142" s="1">
-        <v>9</v>
+      <c r="B142" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>93</v>
@@ -3874,8 +3944,8 @@
       <c r="A143" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B143" s="1">
-        <v>10</v>
+      <c r="B143" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>94</v>
@@ -3885,8 +3955,8 @@
       <c r="A144" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B144" s="1">
-        <v>11</v>
+      <c r="B144" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>95</v>
@@ -3896,8 +3966,8 @@
       <c r="A145" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B145" s="1">
-        <v>12</v>
+      <c r="B145" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>96</v>
@@ -3907,8 +3977,8 @@
       <c r="A146" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B146" s="1">
-        <v>13</v>
+      <c r="B146" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>97</v>
@@ -3918,8 +3988,8 @@
       <c r="A147" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B147" s="1">
-        <v>14</v>
+      <c r="B147" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>98</v>
@@ -3929,8 +3999,8 @@
       <c r="A148" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B148" s="1">
-        <v>15</v>
+      <c r="B148" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>21</v>
@@ -3940,8 +4010,8 @@
       <c r="A149" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B149" s="1">
-        <v>16</v>
+      <c r="B149" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>99</v>
@@ -3951,8 +4021,8 @@
       <c r="A150" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B150" s="1">
-        <v>888</v>
+      <c r="B150" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>23</v>
@@ -3962,8 +4032,8 @@
       <c r="A151" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B151" s="1">
-        <v>1</v>
+      <c r="B151" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>101</v>
@@ -3973,8 +4043,8 @@
       <c r="A152" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B152" s="1">
-        <v>2</v>
+      <c r="B152" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>102</v>
@@ -3984,8 +4054,8 @@
       <c r="A153" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B153" s="1">
-        <v>3</v>
+      <c r="B153" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>103</v>
@@ -3995,8 +4065,8 @@
       <c r="A154" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B154" s="1">
-        <v>4</v>
+      <c r="B154" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>104</v>
@@ -4006,8 +4076,8 @@
       <c r="A155" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B155" s="1">
-        <v>5</v>
+      <c r="B155" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>105</v>
@@ -4017,8 +4087,8 @@
       <c r="A156" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B156" s="1">
-        <v>6</v>
+      <c r="B156" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>106</v>
@@ -4028,8 +4098,8 @@
       <c r="A157" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B157" s="1">
-        <v>7</v>
+      <c r="B157" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>107</v>
@@ -4039,8 +4109,8 @@
       <c r="A158" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B158" s="1">
-        <v>8</v>
+      <c r="B158" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>108</v>
@@ -4050,8 +4120,8 @@
       <c r="A159" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B159" s="1">
-        <v>9</v>
+      <c r="B159" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>109</v>
@@ -4061,8 +4131,8 @@
       <c r="A160" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B160" s="1">
-        <v>10</v>
+      <c r="B160" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>110</v>
@@ -4072,8 +4142,8 @@
       <c r="A161" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B161" s="1">
-        <v>11</v>
+      <c r="B161" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>111</v>
@@ -4083,8 +4153,8 @@
       <c r="A162" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B162" s="1">
-        <v>12</v>
+      <c r="B162" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>112</v>
@@ -4094,8 +4164,8 @@
       <c r="A163" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B163" s="1">
-        <v>13</v>
+      <c r="B163" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>113</v>
@@ -4105,8 +4175,8 @@
       <c r="A164" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B164" s="1">
-        <v>14</v>
+      <c r="B164" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>114</v>
@@ -4116,8 +4186,8 @@
       <c r="A165" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B165" s="1">
-        <v>15</v>
+      <c r="B165" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>21</v>
@@ -4127,8 +4197,8 @@
       <c r="A166" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B166" s="1">
-        <v>888</v>
+      <c r="B166" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>23</v>
@@ -4138,8 +4208,8 @@
       <c r="A167" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B167" s="1">
-        <v>1</v>
+      <c r="B167" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>80</v>
@@ -4149,8 +4219,8 @@
       <c r="A168" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B168" s="1">
-        <v>2</v>
+      <c r="B168" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>81</v>
@@ -4160,8 +4230,8 @@
       <c r="A169" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B169" s="1">
-        <v>3</v>
+      <c r="B169" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>82</v>
@@ -4171,8 +4241,8 @@
       <c r="A170" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B170" s="1">
-        <v>4</v>
+      <c r="B170" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>83</v>
@@ -4182,8 +4252,8 @@
       <c r="A171" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B171" s="1">
-        <v>5</v>
+      <c r="B171" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>84</v>
@@ -4193,8 +4263,8 @@
       <c r="A172" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B172" s="1">
-        <v>6</v>
+      <c r="B172" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>21</v>
@@ -4204,8 +4274,8 @@
       <c r="A173" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B173" s="1">
-        <v>888</v>
+      <c r="B173" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>23</v>
@@ -4215,8 +4285,8 @@
       <c r="A174" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B174" s="1">
-        <v>1</v>
+      <c r="B174" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>117</v>
@@ -4226,8 +4296,8 @@
       <c r="A175" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="1">
-        <v>0</v>
+      <c r="B175" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>118</v>
@@ -4237,8 +4307,8 @@
       <c r="A176" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B176" s="1">
-        <v>888</v>
+      <c r="B176" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>23</v>
@@ -4248,8 +4318,8 @@
       <c r="A177" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B177" s="1">
-        <v>999</v>
+      <c r="B177" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>22</v>
@@ -4259,8 +4329,8 @@
       <c r="A178" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B178" s="1">
-        <v>0</v>
+      <c r="B178" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>120</v>
@@ -4270,8 +4340,8 @@
       <c r="A179" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B179" s="1">
-        <v>1</v>
+      <c r="B179" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>121</v>
@@ -4281,8 +4351,8 @@
       <c r="A180" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B180" s="1">
-        <v>2</v>
+      <c r="B180" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>122</v>
@@ -4292,8 +4362,8 @@
       <c r="A181" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B181" s="2">
-        <v>888</v>
+      <c r="B181" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -4303,8 +4373,8 @@
       <c r="A182" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B182" s="2">
-        <v>0</v>
+      <c r="B182" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>124</v>
@@ -4314,8 +4384,8 @@
       <c r="A183" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B183" s="2">
-        <v>1</v>
+      <c r="B183" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>85</v>
@@ -4325,8 +4395,8 @@
       <c r="A184" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B184" s="2">
-        <v>2</v>
+      <c r="B184" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>86</v>
@@ -4336,8 +4406,8 @@
       <c r="A185" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B185" s="2">
-        <v>3</v>
+      <c r="B185" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>87</v>
@@ -4347,8 +4417,8 @@
       <c r="A186" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B186" s="2">
-        <v>4</v>
+      <c r="B186" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>88</v>
@@ -4358,8 +4428,8 @@
       <c r="A187" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B187" s="2">
-        <v>5</v>
+      <c r="B187" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>89</v>
@@ -4369,8 +4439,8 @@
       <c r="A188" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B188" s="2">
-        <v>6</v>
+      <c r="B188" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>90</v>
@@ -4380,8 +4450,8 @@
       <c r="A189" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B189" s="2">
-        <v>7</v>
+      <c r="B189" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>91</v>
@@ -4391,8 +4461,8 @@
       <c r="A190" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B190" s="2">
-        <v>8</v>
+      <c r="B190" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>92</v>
@@ -4402,8 +4472,8 @@
       <c r="A191" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B191" s="2">
-        <v>9</v>
+      <c r="B191" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>93</v>
@@ -4413,8 +4483,8 @@
       <c r="A192" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B192" s="2">
-        <v>10</v>
+      <c r="B192" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>94</v>
@@ -4424,8 +4494,8 @@
       <c r="A193" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B193" s="2">
-        <v>11</v>
+      <c r="B193" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>95</v>
@@ -4435,8 +4505,8 @@
       <c r="A194" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B194" s="2">
-        <v>12</v>
+      <c r="B194" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>96</v>
@@ -4446,8 +4516,8 @@
       <c r="A195" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B195" s="2">
-        <v>13</v>
+      <c r="B195" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>97</v>
@@ -4457,8 +4527,8 @@
       <c r="A196" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B196" s="2">
-        <v>14</v>
+      <c r="B196" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>21</v>
@@ -4468,8 +4538,8 @@
       <c r="A197" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B197" s="2">
-        <v>888</v>
+      <c r="B197" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>23</v>
@@ -4479,8 +4549,8 @@
       <c r="A198" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B198" s="2">
-        <v>4</v>
+      <c r="B198" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>126</v>
@@ -4490,8 +4560,8 @@
       <c r="A199" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B199" s="2">
-        <v>3</v>
+      <c r="B199" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>127</v>
@@ -4501,8 +4571,8 @@
       <c r="A200" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B200" s="2">
-        <v>2</v>
+      <c r="B200" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>128</v>
@@ -4512,8 +4582,8 @@
       <c r="A201" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B201" s="2">
-        <v>1</v>
+      <c r="B201" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>129</v>
@@ -4523,8 +4593,8 @@
       <c r="A202" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B202" s="2">
-        <v>0</v>
+      <c r="B202" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>120</v>
@@ -4534,8 +4604,8 @@
       <c r="A203" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B203" s="2">
-        <v>888</v>
+      <c r="B203" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>23</v>
@@ -4545,8 +4615,8 @@
       <c r="A204" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B204" s="2">
-        <v>1</v>
+      <c r="B204" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>131</v>
@@ -4556,8 +4626,8 @@
       <c r="A205" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B205" s="2">
-        <v>2</v>
+      <c r="B205" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>132</v>
@@ -4567,8 +4637,8 @@
       <c r="A206" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B206" s="2">
-        <v>3</v>
+      <c r="B206" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>133</v>
@@ -4578,8 +4648,8 @@
       <c r="A207" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B207" s="2">
-        <v>4</v>
+      <c r="B207" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>134</v>
@@ -4589,8 +4659,8 @@
       <c r="A208" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B208" s="2">
-        <v>5</v>
+      <c r="B208" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>135</v>
@@ -4600,8 +4670,8 @@
       <c r="A209" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B209" s="2">
-        <v>6</v>
+      <c r="B209" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>21</v>
@@ -4611,8 +4681,8 @@
       <c r="A210" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B210" s="2">
-        <v>888</v>
+      <c r="B210" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>23</v>
@@ -4622,8 +4692,8 @@
       <c r="A211" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B211" s="2">
-        <v>999</v>
+      <c r="B211" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>22</v>
@@ -4633,8 +4703,8 @@
       <c r="A212" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B212" s="2">
-        <v>0</v>
+      <c r="B212" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>137</v>
@@ -4644,8 +4714,8 @@
       <c r="A213" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B213" s="2">
-        <v>1</v>
+      <c r="B213" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>138</v>
@@ -4655,8 +4725,8 @@
       <c r="A214" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B214" s="2">
-        <v>888</v>
+      <c r="B214" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>23</v>
@@ -4666,8 +4736,8 @@
       <c r="A215" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B215" s="2">
-        <v>1</v>
+      <c r="B215" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>20</v>
@@ -4677,8 +4747,8 @@
       <c r="A216" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B216" s="2">
-        <v>0</v>
+      <c r="B216" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>19</v>
@@ -4688,8 +4758,8 @@
       <c r="A217" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B217" s="2">
-        <v>2</v>
+      <c r="B217" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>140</v>
@@ -4699,8 +4769,8 @@
       <c r="A218" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B218" s="2">
-        <v>888</v>
+      <c r="B218" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>23</v>
@@ -4710,8 +4780,8 @@
       <c r="A219" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B219" s="2">
-        <v>1</v>
+      <c r="B219" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>142</v>
@@ -4721,8 +4791,8 @@
       <c r="A220" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B220" s="2">
-        <v>2</v>
+      <c r="B220" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>143</v>
@@ -4732,8 +4802,8 @@
       <c r="A221" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B221" s="2">
-        <v>3</v>
+      <c r="B221" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>144</v>
@@ -4743,8 +4813,8 @@
       <c r="A222" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B222" s="2">
-        <v>0</v>
+      <c r="B222" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>16</v>
@@ -4754,8 +4824,8 @@
       <c r="A223" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B223" s="2">
-        <v>888</v>
+      <c r="B223" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>23</v>
@@ -4765,8 +4835,8 @@
       <c r="A224" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B224" s="2">
-        <v>999</v>
+      <c r="B224" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>22</v>
@@ -4776,8 +4846,8 @@
       <c r="A225" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B225" s="2">
-        <v>0</v>
+      <c r="B225" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>147</v>
@@ -4787,8 +4857,8 @@
       <c r="A226" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B226" s="2">
-        <v>1</v>
+      <c r="B226" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>148</v>
@@ -4798,8 +4868,8 @@
       <c r="A227" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B227" s="2">
-        <v>2</v>
+      <c r="B227" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>149</v>
@@ -4809,8 +4879,8 @@
       <c r="A228" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B228" s="2">
-        <v>3</v>
+      <c r="B228" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>150</v>
@@ -4820,8 +4890,8 @@
       <c r="A229" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B229" s="2">
-        <v>4</v>
+      <c r="B229" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>21</v>
@@ -4831,8 +4901,8 @@
       <c r="A230" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B230" s="2">
-        <v>888</v>
+      <c r="B230" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>23</v>
@@ -4842,8 +4912,8 @@
       <c r="A231" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B231" s="2">
-        <v>1</v>
+      <c r="B231" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>151</v>
@@ -4853,8 +4923,8 @@
       <c r="A232" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B232" s="2">
-        <v>2</v>
+      <c r="B232" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>152</v>
@@ -4864,8 +4934,8 @@
       <c r="A233" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B233" s="2">
-        <v>3</v>
+      <c r="B233" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>153</v>
@@ -4875,8 +4945,8 @@
       <c r="A234" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B234" s="2">
-        <v>4</v>
+      <c r="B234" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>154</v>
@@ -4886,8 +4956,8 @@
       <c r="A235" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B235" s="2">
-        <v>5</v>
+      <c r="B235" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>21</v>
@@ -4897,8 +4967,8 @@
       <c r="A236" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B236" s="2">
-        <v>888</v>
+      <c r="B236" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>23</v>
@@ -4908,8 +4978,8 @@
       <c r="A237" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B237" s="2">
-        <v>999</v>
+      <c r="B237" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>22</v>
@@ -4919,8 +4989,8 @@
       <c r="A238" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B238" s="2">
-        <v>0</v>
+      <c r="B238" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>147</v>
@@ -4930,8 +5000,8 @@
       <c r="A239" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B239" s="2">
-        <v>1</v>
+      <c r="B239" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>156</v>
@@ -4941,8 +5011,8 @@
       <c r="A240" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B240" s="2">
-        <v>2</v>
+      <c r="B240" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>157</v>
@@ -4952,8 +5022,8 @@
       <c r="A241" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B241" s="2">
-        <v>888</v>
+      <c r="B241" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>23</v>
@@ -4963,8 +5033,8 @@
       <c r="A242" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B242" s="2">
-        <v>999</v>
+      <c r="B242" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>22</v>
@@ -4974,8 +5044,8 @@
       <c r="A243" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B243" s="2">
-        <v>1</v>
+      <c r="B243" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>29</v>
@@ -4985,8 +5055,8 @@
       <c r="A244" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B244" s="2">
-        <v>0</v>
+      <c r="B244" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>30</v>
@@ -4996,8 +5066,8 @@
       <c r="A245" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B245" s="2">
-        <v>0</v>
+      <c r="B245" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>19</v>
@@ -5007,8 +5077,8 @@
       <c r="A246" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B246" s="2">
-        <v>1</v>
+      <c r="B246" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>20</v>
@@ -5018,8 +5088,8 @@
       <c r="A247" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B247" s="2">
-        <v>1</v>
+      <c r="B247" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>29</v>
@@ -5029,8 +5099,8 @@
       <c r="A248" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B248" s="2">
-        <v>0</v>
+      <c r="B248" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>30</v>
@@ -5040,8 +5110,8 @@
       <c r="A249" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B249" s="2">
-        <v>2</v>
+      <c r="B249" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>160</v>
@@ -5051,8 +5121,8 @@
       <c r="A250" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B250" s="2">
-        <v>1</v>
+      <c r="B250" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>15</v>
@@ -5062,8 +5132,8 @@
       <c r="A251" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B251" s="2">
-        <v>0</v>
+      <c r="B251" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>16</v>
@@ -5073,8 +5143,8 @@
       <c r="A252" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B252" s="2">
-        <v>3</v>
+      <c r="B252" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>163</v>
@@ -5084,8 +5154,8 @@
       <c r="A253" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B253" s="2">
-        <v>1</v>
+      <c r="B253" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>211</v>
@@ -5095,8 +5165,8 @@
       <c r="A254" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B254" s="2">
-        <v>1</v>
+      <c r="B254" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>246</v>
@@ -5106,8 +5176,8 @@
       <c r="A255" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B255" s="2">
-        <v>888</v>
+      <c r="B255" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>23</v>
@@ -5128,7 +5198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/app/tables/femaleClients/forms/client6Week/client6Week.xlsx
+++ b/app/tables/femaleClients/forms/client6Week/client6Week.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="760" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="model" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="370">
   <si>
     <t>type</t>
   </si>
@@ -813,9 +814,6 @@
     <t>display.hint</t>
   </si>
   <si>
-    <t>interviewerw_init</t>
-  </si>
-  <si>
     <t>interviewer_id</t>
   </si>
   <si>
@@ -1054,6 +1052,90 @@
   </si>
   <si>
     <t>a16</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>randomization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one </t>
+  </si>
+  <si>
+    <t>rel_change</t>
+  </si>
+  <si>
+    <t>rel_change_other</t>
+  </si>
+  <si>
+    <t>rel_end_study</t>
+  </si>
+  <si>
+    <t>rel_end_reason</t>
+  </si>
+  <si>
+    <t>Rel_OtherEnd</t>
+  </si>
+  <si>
+    <t>agree_screening</t>
+  </si>
+  <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>gestational_age</t>
+  </si>
+  <si>
+    <t>ethnic_group</t>
+  </si>
+  <si>
+    <t>ethnic_group_other</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>religion_other</t>
+  </si>
+  <si>
+    <t>employment</t>
+  </si>
+  <si>
+    <t>employment_other</t>
+  </si>
+  <si>
+    <t>curr_relationship</t>
+  </si>
+  <si>
+    <t>partner_age</t>
+  </si>
+  <si>
+    <t>times_pregnant</t>
+  </si>
+  <si>
+    <t>living_children</t>
+  </si>
+  <si>
+    <t>clinic_proximity</t>
+  </si>
+  <si>
+    <t>client_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple </t>
+  </si>
+  <si>
+    <t>refusal_reasons</t>
+  </si>
+  <si>
+    <t>refusal_reasons_other</t>
+  </si>
+  <si>
+    <t>interviewer_init</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1116,6 +1198,30 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1156,7 +1262,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1213,6 +1319,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1623,11 +1745,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1647,7 +1769,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30">
       <c r="A1" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1707,7 +1829,7 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="9" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>257</v>
@@ -1730,7 +1852,7 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
@@ -1756,7 +1878,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>252</v>
@@ -1765,7 +1887,7 @@
         <v>251</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="60">
@@ -1774,7 +1896,7 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>244</v>
@@ -1786,7 +1908,7 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>212</v>
@@ -1794,13 +1916,13 @@
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>213</v>
@@ -1808,7 +1930,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="14"/>
@@ -1819,7 +1941,7 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>253</v>
@@ -1827,13 +1949,13 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>214</v>
@@ -1845,7 +1967,7 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>254</v>
@@ -1853,7 +1975,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="14"/>
@@ -1864,7 +1986,7 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>168</v>
@@ -1872,13 +1994,13 @@
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>172</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>215</v>
@@ -1890,7 +2012,7 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>216</v>
@@ -1898,13 +2020,13 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>224</v>
@@ -1916,7 +2038,7 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>195</v>
@@ -1924,13 +2046,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>217</v>
@@ -1938,13 +2060,13 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>218</v>
@@ -1952,13 +2074,13 @@
     </row>
     <row r="21" spans="2:9" ht="45">
       <c r="B21" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>197</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>219</v>
@@ -1973,7 +2095,7 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>202</v>
@@ -1989,7 +2111,7 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>203</v>
@@ -1998,13 +2120,13 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>220</v>
@@ -2012,13 +2134,13 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>221</v>
@@ -2030,7 +2152,7 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>222</v>
@@ -2045,7 +2167,7 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>204</v>
@@ -2054,13 +2176,13 @@
     </row>
     <row r="29" spans="2:9" ht="60">
       <c r="B29" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>226</v>
@@ -2071,13 +2193,13 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>228</v>
@@ -2089,7 +2211,7 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>227</v>
@@ -2097,13 +2219,13 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>229</v>
@@ -2111,13 +2233,13 @@
     </row>
     <row r="33" spans="1:6" ht="30">
       <c r="B33" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>230</v>
@@ -2125,13 +2247,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>40</v>
@@ -2143,7 +2265,7 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>231</v>
@@ -2154,13 +2276,13 @@
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="B36" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>232</v>
@@ -2168,23 +2290,23 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="14"/>
       <c r="D37" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="B38" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>233</v>
@@ -2192,13 +2314,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>234</v>
@@ -2206,13 +2328,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>235</v>
@@ -2220,13 +2342,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>236</v>
@@ -2234,13 +2356,13 @@
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="B42" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>237</v>
@@ -2251,13 +2373,13 @@
     </row>
     <row r="43" spans="1:6" ht="30">
       <c r="B43" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>238</v>
@@ -2265,13 +2387,13 @@
     </row>
     <row r="44" spans="1:6" ht="30">
       <c r="B44" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>239</v>
@@ -2279,13 +2401,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>240</v>
@@ -2293,13 +2415,13 @@
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="B46" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>241</v>
@@ -2307,7 +2429,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="14"/>
@@ -2318,7 +2440,7 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>256</v>
@@ -2326,13 +2448,13 @@
     </row>
     <row r="49" spans="2:9" ht="60">
       <c r="B49" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>248</v>
@@ -2345,7 +2467,7 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>209</v>
@@ -2366,7 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2380,10 +2502,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>260</v>
@@ -2394,7 +2516,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>170</v>
@@ -2405,7 +2527,7 @@
         <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>171</v>
@@ -2416,7 +2538,7 @@
         <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -2427,7 +2549,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -2438,7 +2560,7 @@
         <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>173</v>
@@ -2449,7 +2571,7 @@
         <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>174</v>
@@ -2460,7 +2582,7 @@
         <v>172</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>255</v>
@@ -2471,7 +2593,7 @@
         <v>172</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>223</v>
@@ -2482,7 +2604,7 @@
         <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>175</v>
@@ -2493,7 +2615,7 @@
         <v>172</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -2504,7 +2626,7 @@
         <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -2515,7 +2637,7 @@
         <v>176</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>177</v>
@@ -2526,7 +2648,7 @@
         <v>176</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>178</v>
@@ -2537,7 +2659,7 @@
         <v>176</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>179</v>
@@ -2548,7 +2670,7 @@
         <v>176</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>180</v>
@@ -2559,7 +2681,7 @@
         <v>176</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>181</v>
@@ -2570,7 +2692,7 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>182</v>
@@ -2581,7 +2703,7 @@
         <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>183</v>
@@ -2592,7 +2714,7 @@
         <v>176</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>184</v>
@@ -2603,7 +2725,7 @@
         <v>176</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>185</v>
@@ -2614,7 +2736,7 @@
         <v>176</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -2625,7 +2747,7 @@
         <v>176</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -2636,7 +2758,7 @@
         <v>194</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>186</v>
@@ -2647,7 +2769,7 @@
         <v>194</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>187</v>
@@ -2658,7 +2780,7 @@
         <v>194</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>188</v>
@@ -2669,7 +2791,7 @@
         <v>194</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>189</v>
@@ -2680,7 +2802,7 @@
         <v>194</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>190</v>
@@ -2691,7 +2813,7 @@
         <v>194</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>191</v>
@@ -2702,7 +2824,7 @@
         <v>194</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>192</v>
@@ -2713,7 +2835,7 @@
         <v>194</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -2724,7 +2846,7 @@
         <v>194</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>193</v>
@@ -2735,7 +2857,7 @@
         <v>194</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>23</v>
@@ -2746,7 +2868,7 @@
         <v>197</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>124</v>
@@ -2757,7 +2879,7 @@
         <v>197</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>198</v>
@@ -2768,7 +2890,7 @@
         <v>197</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>199</v>
@@ -2779,7 +2901,7 @@
         <v>197</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>200</v>
@@ -2790,7 +2912,7 @@
         <v>197</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>201</v>
@@ -2801,7 +2923,7 @@
         <v>197</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>21</v>
@@ -2812,7 +2934,7 @@
         <v>197</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>23</v>
@@ -2823,7 +2945,7 @@
         <v>207</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>20</v>
@@ -2834,7 +2956,7 @@
         <v>207</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>19</v>
@@ -2845,7 +2967,7 @@
         <v>207</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>208</v>
@@ -2856,7 +2978,7 @@
         <v>207</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
@@ -2867,7 +2989,7 @@
         <v>26</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
@@ -2878,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -2889,7 +3011,7 @@
         <v>26</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
@@ -2900,7 +3022,7 @@
         <v>26</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
@@ -2911,7 +3033,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>29</v>
@@ -2922,7 +3044,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>30</v>
@@ -2933,7 +3055,7 @@
         <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2944,7 +3066,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>33</v>
@@ -2955,7 +3077,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>34</v>
@@ -2966,7 +3088,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>35</v>
@@ -2977,7 +3099,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>37</v>
@@ -2988,7 +3110,7 @@
         <v>38</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>36</v>
@@ -2999,7 +3121,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
@@ -3010,7 +3132,7 @@
         <v>39</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
@@ -3021,7 +3143,7 @@
         <v>39</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>36</v>
@@ -3032,7 +3154,7 @@
         <v>41</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -3043,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>42</v>
@@ -3054,7 +3176,7 @@
         <v>41</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>43</v>
@@ -3065,7 +3187,7 @@
         <v>41</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>23</v>
@@ -3076,7 +3198,7 @@
         <v>41</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>22</v>
@@ -3087,7 +3209,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
@@ -3098,7 +3220,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>20</v>
@@ -3109,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>44</v>
@@ -3120,7 +3242,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>22</v>
@@ -3131,7 +3253,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
@@ -3142,7 +3264,7 @@
         <v>46</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
@@ -3153,7 +3275,7 @@
         <v>46</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>36</v>
@@ -3164,7 +3286,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>22</v>
@@ -3175,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -3186,7 +3308,7 @@
         <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
@@ -3197,7 +3319,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>47</v>
@@ -3208,7 +3330,7 @@
         <v>49</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>48</v>
@@ -3219,7 +3341,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>36</v>
@@ -3230,7 +3352,7 @@
         <v>49</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>22</v>
@@ -3241,7 +3363,7 @@
         <v>50</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>51</v>
@@ -3252,7 +3374,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>52</v>
@@ -3263,7 +3385,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>53</v>
@@ -3274,7 +3396,7 @@
         <v>50</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>36</v>
@@ -3285,7 +3407,7 @@
         <v>50</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>22</v>
@@ -3296,7 +3418,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>55</v>
@@ -3307,7 +3429,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>56</v>
@@ -3318,7 +3440,7 @@
         <v>54</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>57</v>
@@ -3329,7 +3451,7 @@
         <v>54</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>21</v>
@@ -3340,7 +3462,7 @@
         <v>54</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>36</v>
@@ -3351,7 +3473,7 @@
         <v>54</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>22</v>
@@ -3362,7 +3484,7 @@
         <v>58</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>59</v>
@@ -3373,7 +3495,7 @@
         <v>58</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>60</v>
@@ -3384,7 +3506,7 @@
         <v>58</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>243</v>
@@ -3395,7 +3517,7 @@
         <v>58</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>36</v>
@@ -3406,7 +3528,7 @@
         <v>58</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>22</v>
@@ -3417,7 +3539,7 @@
         <v>61</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>62</v>
@@ -3428,7 +3550,7 @@
         <v>61</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>63</v>
@@ -3439,7 +3561,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>64</v>
@@ -3450,7 +3572,7 @@
         <v>61</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>65</v>
@@ -3461,7 +3583,7 @@
         <v>61</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>66</v>
@@ -3472,7 +3594,7 @@
         <v>61</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>67</v>
@@ -3483,7 +3605,7 @@
         <v>61</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>21</v>
@@ -3494,7 +3616,7 @@
         <v>61</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>68</v>
@@ -3505,7 +3627,7 @@
         <v>69</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>62</v>
@@ -3516,7 +3638,7 @@
         <v>69</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>63</v>
@@ -3527,7 +3649,7 @@
         <v>69</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>64</v>
@@ -3538,7 +3660,7 @@
         <v>69</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>65</v>
@@ -3549,7 +3671,7 @@
         <v>69</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>66</v>
@@ -3560,7 +3682,7 @@
         <v>69</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>67</v>
@@ -3571,7 +3693,7 @@
         <v>69</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>21</v>
@@ -3582,7 +3704,7 @@
         <v>69</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>70</v>
@@ -3593,7 +3715,7 @@
         <v>69</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>68</v>
@@ -3604,7 +3726,7 @@
         <v>71</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
@@ -3615,7 +3737,7 @@
         <v>71</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
@@ -3626,7 +3748,7 @@
         <v>71</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>72</v>
@@ -3637,7 +3759,7 @@
         <v>71</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>36</v>
@@ -3648,7 +3770,7 @@
         <v>71</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>22</v>
@@ -3681,7 +3803,7 @@
         <v>73</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>74</v>
@@ -3692,7 +3814,7 @@
         <v>73</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>36</v>
@@ -3703,7 +3825,7 @@
         <v>73</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>22</v>
@@ -3714,7 +3836,7 @@
         <v>75</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>76</v>
@@ -3725,7 +3847,7 @@
         <v>75</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>77</v>
@@ -3736,7 +3858,7 @@
         <v>75</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>78</v>
@@ -3747,7 +3869,7 @@
         <v>75</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>23</v>
@@ -3758,7 +3880,7 @@
         <v>75</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>22</v>
@@ -3769,7 +3891,7 @@
         <v>79</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>80</v>
@@ -3780,7 +3902,7 @@
         <v>79</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>81</v>
@@ -3791,7 +3913,7 @@
         <v>79</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>82</v>
@@ -3802,7 +3924,7 @@
         <v>79</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>83</v>
@@ -3813,7 +3935,7 @@
         <v>79</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>84</v>
@@ -3824,7 +3946,7 @@
         <v>79</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>21</v>
@@ -3835,7 +3957,7 @@
         <v>79</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -3846,7 +3968,7 @@
         <v>100</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>85</v>
@@ -3857,7 +3979,7 @@
         <v>100</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>86</v>
@@ -3868,7 +3990,7 @@
         <v>100</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>87</v>
@@ -3879,7 +4001,7 @@
         <v>100</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>88</v>
@@ -3890,7 +4012,7 @@
         <v>100</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>89</v>
@@ -3901,7 +4023,7 @@
         <v>100</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>90</v>
@@ -3912,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>91</v>
@@ -3923,7 +4045,7 @@
         <v>100</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>92</v>
@@ -3934,7 +4056,7 @@
         <v>100</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>93</v>
@@ -3945,7 +4067,7 @@
         <v>100</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>94</v>
@@ -3956,7 +4078,7 @@
         <v>100</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>95</v>
@@ -3967,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>96</v>
@@ -3978,7 +4100,7 @@
         <v>100</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>97</v>
@@ -3989,7 +4111,7 @@
         <v>100</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>98</v>
@@ -4000,7 +4122,7 @@
         <v>100</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>21</v>
@@ -4011,7 +4133,7 @@
         <v>100</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>99</v>
@@ -4022,7 +4144,7 @@
         <v>100</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>23</v>
@@ -4033,7 +4155,7 @@
         <v>115</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>101</v>
@@ -4044,7 +4166,7 @@
         <v>115</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>102</v>
@@ -4055,7 +4177,7 @@
         <v>115</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>103</v>
@@ -4066,7 +4188,7 @@
         <v>115</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>104</v>
@@ -4077,7 +4199,7 @@
         <v>115</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>105</v>
@@ -4088,7 +4210,7 @@
         <v>115</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>106</v>
@@ -4099,7 +4221,7 @@
         <v>115</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>107</v>
@@ -4110,7 +4232,7 @@
         <v>115</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>108</v>
@@ -4121,7 +4243,7 @@
         <v>115</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>109</v>
@@ -4132,7 +4254,7 @@
         <v>115</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>110</v>
@@ -4143,7 +4265,7 @@
         <v>115</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>111</v>
@@ -4154,7 +4276,7 @@
         <v>115</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>112</v>
@@ -4165,7 +4287,7 @@
         <v>115</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>113</v>
@@ -4176,7 +4298,7 @@
         <v>115</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>114</v>
@@ -4187,7 +4309,7 @@
         <v>115</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>21</v>
@@ -4198,7 +4320,7 @@
         <v>115</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>23</v>
@@ -4209,7 +4331,7 @@
         <v>116</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>80</v>
@@ -4220,7 +4342,7 @@
         <v>116</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>81</v>
@@ -4231,7 +4353,7 @@
         <v>116</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>82</v>
@@ -4242,7 +4364,7 @@
         <v>116</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>83</v>
@@ -4253,7 +4375,7 @@
         <v>116</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>84</v>
@@ -4264,7 +4386,7 @@
         <v>116</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>21</v>
@@ -4275,7 +4397,7 @@
         <v>116</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>23</v>
@@ -4286,7 +4408,7 @@
         <v>119</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>117</v>
@@ -4297,7 +4419,7 @@
         <v>119</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>118</v>
@@ -4308,7 +4430,7 @@
         <v>119</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>23</v>
@@ -4319,7 +4441,7 @@
         <v>119</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>22</v>
@@ -4330,7 +4452,7 @@
         <v>123</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>120</v>
@@ -4341,7 +4463,7 @@
         <v>123</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>121</v>
@@ -4352,7 +4474,7 @@
         <v>123</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>122</v>
@@ -4363,7 +4485,7 @@
         <v>123</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -4374,7 +4496,7 @@
         <v>125</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>124</v>
@@ -4385,7 +4507,7 @@
         <v>125</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>85</v>
@@ -4396,7 +4518,7 @@
         <v>125</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>86</v>
@@ -4407,7 +4529,7 @@
         <v>125</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>87</v>
@@ -4418,7 +4540,7 @@
         <v>125</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>88</v>
@@ -4429,7 +4551,7 @@
         <v>125</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>89</v>
@@ -4440,7 +4562,7 @@
         <v>125</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>90</v>
@@ -4451,7 +4573,7 @@
         <v>125</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>91</v>
@@ -4462,7 +4584,7 @@
         <v>125</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>92</v>
@@ -4473,7 +4595,7 @@
         <v>125</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>93</v>
@@ -4484,7 +4606,7 @@
         <v>125</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>94</v>
@@ -4495,7 +4617,7 @@
         <v>125</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>95</v>
@@ -4506,7 +4628,7 @@
         <v>125</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>96</v>
@@ -4517,7 +4639,7 @@
         <v>125</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>97</v>
@@ -4528,7 +4650,7 @@
         <v>125</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>21</v>
@@ -4539,7 +4661,7 @@
         <v>125</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>23</v>
@@ -4550,7 +4672,7 @@
         <v>130</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>126</v>
@@ -4561,7 +4683,7 @@
         <v>130</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>127</v>
@@ -4572,7 +4694,7 @@
         <v>130</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>128</v>
@@ -4583,7 +4705,7 @@
         <v>130</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>129</v>
@@ -4594,7 +4716,7 @@
         <v>130</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>120</v>
@@ -4605,7 +4727,7 @@
         <v>130</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>23</v>
@@ -4616,7 +4738,7 @@
         <v>136</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>131</v>
@@ -4627,7 +4749,7 @@
         <v>136</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>132</v>
@@ -4638,7 +4760,7 @@
         <v>136</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>133</v>
@@ -4649,7 +4771,7 @@
         <v>136</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>134</v>
@@ -4660,7 +4782,7 @@
         <v>136</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>135</v>
@@ -4671,7 +4793,7 @@
         <v>136</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>21</v>
@@ -4682,7 +4804,7 @@
         <v>136</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>23</v>
@@ -4693,7 +4815,7 @@
         <v>136</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>22</v>
@@ -4704,7 +4826,7 @@
         <v>139</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>137</v>
@@ -4715,7 +4837,7 @@
         <v>139</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>138</v>
@@ -4726,7 +4848,7 @@
         <v>139</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>23</v>
@@ -4737,7 +4859,7 @@
         <v>141</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>20</v>
@@ -4748,7 +4870,7 @@
         <v>141</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>19</v>
@@ -4759,7 +4881,7 @@
         <v>141</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>140</v>
@@ -4770,7 +4892,7 @@
         <v>141</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>23</v>
@@ -4781,7 +4903,7 @@
         <v>145</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>142</v>
@@ -4792,7 +4914,7 @@
         <v>145</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>143</v>
@@ -4803,7 +4925,7 @@
         <v>145</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>144</v>
@@ -4814,7 +4936,7 @@
         <v>145</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>16</v>
@@ -4825,7 +4947,7 @@
         <v>145</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>23</v>
@@ -4836,7 +4958,7 @@
         <v>145</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>22</v>
@@ -4847,7 +4969,7 @@
         <v>146</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>147</v>
@@ -4858,7 +4980,7 @@
         <v>146</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>148</v>
@@ -4869,7 +4991,7 @@
         <v>146</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>149</v>
@@ -4880,7 +5002,7 @@
         <v>146</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>150</v>
@@ -4891,7 +5013,7 @@
         <v>146</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>21</v>
@@ -4902,7 +5024,7 @@
         <v>146</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>23</v>
@@ -4913,7 +5035,7 @@
         <v>155</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>151</v>
@@ -4924,7 +5046,7 @@
         <v>155</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>152</v>
@@ -4935,7 +5057,7 @@
         <v>155</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>153</v>
@@ -4946,7 +5068,7 @@
         <v>155</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>154</v>
@@ -4957,7 +5079,7 @@
         <v>155</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>21</v>
@@ -4968,7 +5090,7 @@
         <v>155</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>23</v>
@@ -4979,7 +5101,7 @@
         <v>155</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>22</v>
@@ -4990,7 +5112,7 @@
         <v>158</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>147</v>
@@ -5001,7 +5123,7 @@
         <v>158</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>156</v>
@@ -5012,7 +5134,7 @@
         <v>158</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>157</v>
@@ -5023,7 +5145,7 @@
         <v>158</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>23</v>
@@ -5034,7 +5156,7 @@
         <v>158</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>22</v>
@@ -5045,7 +5167,7 @@
         <v>159</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>29</v>
@@ -5056,7 +5178,7 @@
         <v>159</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>30</v>
@@ -5067,7 +5189,7 @@
         <v>17</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>19</v>
@@ -5078,7 +5200,7 @@
         <v>17</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>20</v>
@@ -5089,7 +5211,7 @@
         <v>161</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>29</v>
@@ -5100,7 +5222,7 @@
         <v>161</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>30</v>
@@ -5111,7 +5233,7 @@
         <v>161</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>160</v>
@@ -5122,7 +5244,7 @@
         <v>162</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>15</v>
@@ -5133,7 +5255,7 @@
         <v>162</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>16</v>
@@ -5144,7 +5266,7 @@
         <v>162</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>163</v>
@@ -5155,7 +5277,7 @@
         <v>210</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>211</v>
@@ -5166,7 +5288,7 @@
         <v>245</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>246</v>
@@ -5177,7 +5299,7 @@
         <v>245</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>23</v>
@@ -5211,13 +5333,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" t="s">
         <v>313</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>314</v>
-      </c>
-      <c r="C1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5230,7 +5352,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -5238,18 +5360,561 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" t="s">
         <v>317</v>
-      </c>
-      <c r="C4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
         <v>319</v>
       </c>
-      <c r="B5" t="s">
-        <v>320</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/femaleClients/forms/client6Week/client6Week.xlsx
+++ b/app/tables/femaleClients/forms/client6Week/client6Week.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="369">
   <si>
     <t>type</t>
   </si>
@@ -953,9 +953,6 @@
   </si>
   <si>
     <t>end screen</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>choice_list_name</t>
@@ -1262,7 +1259,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1335,6 +1332,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1746,10 +1746,10 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1769,7 +1769,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>257</v>
@@ -1886,8 +1886,8 @@
       <c r="F5" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>309</v>
+      <c r="I5" s="26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="60">
@@ -2502,10 +2502,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>260</v>
@@ -2516,7 +2516,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>170</v>
@@ -2527,7 +2527,7 @@
         <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>171</v>
@@ -2538,7 +2538,7 @@
         <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -2549,7 +2549,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -2560,7 +2560,7 @@
         <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>173</v>
@@ -2571,7 +2571,7 @@
         <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>174</v>
@@ -2582,7 +2582,7 @@
         <v>172</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>255</v>
@@ -2593,7 +2593,7 @@
         <v>172</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>223</v>
@@ -2604,7 +2604,7 @@
         <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>175</v>
@@ -2615,7 +2615,7 @@
         <v>172</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -2626,7 +2626,7 @@
         <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -2637,7 +2637,7 @@
         <v>176</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>177</v>
@@ -2648,7 +2648,7 @@
         <v>176</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>178</v>
@@ -2659,7 +2659,7 @@
         <v>176</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>179</v>
@@ -2670,7 +2670,7 @@
         <v>176</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>180</v>
@@ -2681,7 +2681,7 @@
         <v>176</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>181</v>
@@ -2692,7 +2692,7 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>182</v>
@@ -2703,7 +2703,7 @@
         <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>183</v>
@@ -2714,7 +2714,7 @@
         <v>176</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>184</v>
@@ -2725,7 +2725,7 @@
         <v>176</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>185</v>
@@ -2736,7 +2736,7 @@
         <v>176</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -2747,7 +2747,7 @@
         <v>176</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -2758,7 +2758,7 @@
         <v>194</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>186</v>
@@ -2769,7 +2769,7 @@
         <v>194</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>187</v>
@@ -2780,7 +2780,7 @@
         <v>194</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>188</v>
@@ -2791,7 +2791,7 @@
         <v>194</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>189</v>
@@ -2802,7 +2802,7 @@
         <v>194</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>190</v>
@@ -2813,7 +2813,7 @@
         <v>194</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>191</v>
@@ -2824,7 +2824,7 @@
         <v>194</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>192</v>
@@ -2835,7 +2835,7 @@
         <v>194</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -2846,7 +2846,7 @@
         <v>194</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>193</v>
@@ -2857,7 +2857,7 @@
         <v>194</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>23</v>
@@ -2868,7 +2868,7 @@
         <v>197</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>124</v>
@@ -2879,7 +2879,7 @@
         <v>197</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>198</v>
@@ -2890,7 +2890,7 @@
         <v>197</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>199</v>
@@ -2901,7 +2901,7 @@
         <v>197</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>200</v>
@@ -2912,7 +2912,7 @@
         <v>197</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>201</v>
@@ -2923,7 +2923,7 @@
         <v>197</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>21</v>
@@ -2934,7 +2934,7 @@
         <v>197</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>23</v>
@@ -2945,7 +2945,7 @@
         <v>207</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>20</v>
@@ -2956,7 +2956,7 @@
         <v>207</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>19</v>
@@ -2967,7 +2967,7 @@
         <v>207</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>208</v>
@@ -2978,7 +2978,7 @@
         <v>207</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
@@ -2989,7 +2989,7 @@
         <v>26</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
@@ -3000,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -3011,7 +3011,7 @@
         <v>26</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
@@ -3022,7 +3022,7 @@
         <v>26</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
@@ -3033,7 +3033,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>29</v>
@@ -3044,7 +3044,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>30</v>
@@ -3055,7 +3055,7 @@
         <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3066,7 +3066,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>33</v>
@@ -3077,7 +3077,7 @@
         <v>38</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>34</v>
@@ -3088,7 +3088,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>35</v>
@@ -3099,7 +3099,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>37</v>
@@ -3110,7 +3110,7 @@
         <v>38</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>36</v>
@@ -3121,7 +3121,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
@@ -3132,7 +3132,7 @@
         <v>39</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
@@ -3143,7 +3143,7 @@
         <v>39</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>36</v>
@@ -3154,7 +3154,7 @@
         <v>41</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -3165,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>42</v>
@@ -3176,7 +3176,7 @@
         <v>41</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>43</v>
@@ -3187,7 +3187,7 @@
         <v>41</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>23</v>
@@ -3198,7 +3198,7 @@
         <v>41</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>22</v>
@@ -3209,7 +3209,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
@@ -3220,7 +3220,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>20</v>
@@ -3231,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>44</v>
@@ -3242,7 +3242,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>22</v>
@@ -3253,7 +3253,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
@@ -3264,7 +3264,7 @@
         <v>46</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
@@ -3275,7 +3275,7 @@
         <v>46</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>36</v>
@@ -3286,7 +3286,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>22</v>
@@ -3297,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -3308,7 +3308,7 @@
         <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
@@ -3319,7 +3319,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>47</v>
@@ -3330,7 +3330,7 @@
         <v>49</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>48</v>
@@ -3341,7 +3341,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>36</v>
@@ -3352,7 +3352,7 @@
         <v>49</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>22</v>
@@ -3363,7 +3363,7 @@
         <v>50</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>51</v>
@@ -3374,7 +3374,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>52</v>
@@ -3385,7 +3385,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>53</v>
@@ -3396,7 +3396,7 @@
         <v>50</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>36</v>
@@ -3407,7 +3407,7 @@
         <v>50</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>22</v>
@@ -3418,7 +3418,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>55</v>
@@ -3429,7 +3429,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>56</v>
@@ -3440,7 +3440,7 @@
         <v>54</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>57</v>
@@ -3451,7 +3451,7 @@
         <v>54</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>21</v>
@@ -3462,7 +3462,7 @@
         <v>54</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>36</v>
@@ -3473,7 +3473,7 @@
         <v>54</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>22</v>
@@ -3484,7 +3484,7 @@
         <v>58</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>59</v>
@@ -3495,7 +3495,7 @@
         <v>58</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>60</v>
@@ -3506,7 +3506,7 @@
         <v>58</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>243</v>
@@ -3517,7 +3517,7 @@
         <v>58</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>36</v>
@@ -3528,7 +3528,7 @@
         <v>58</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>22</v>
@@ -3539,7 +3539,7 @@
         <v>61</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>62</v>
@@ -3550,7 +3550,7 @@
         <v>61</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>63</v>
@@ -3561,7 +3561,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>64</v>
@@ -3572,7 +3572,7 @@
         <v>61</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>65</v>
@@ -3583,7 +3583,7 @@
         <v>61</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>66</v>
@@ -3594,7 +3594,7 @@
         <v>61</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>67</v>
@@ -3605,7 +3605,7 @@
         <v>61</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>21</v>
@@ -3616,7 +3616,7 @@
         <v>61</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>68</v>
@@ -3627,7 +3627,7 @@
         <v>69</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>62</v>
@@ -3638,7 +3638,7 @@
         <v>69</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>63</v>
@@ -3649,7 +3649,7 @@
         <v>69</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>64</v>
@@ -3660,7 +3660,7 @@
         <v>69</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>65</v>
@@ -3671,7 +3671,7 @@
         <v>69</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>66</v>
@@ -3682,7 +3682,7 @@
         <v>69</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>67</v>
@@ -3693,7 +3693,7 @@
         <v>69</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>21</v>
@@ -3704,7 +3704,7 @@
         <v>69</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>70</v>
@@ -3715,7 +3715,7 @@
         <v>69</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>68</v>
@@ -3726,7 +3726,7 @@
         <v>71</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
@@ -3737,7 +3737,7 @@
         <v>71</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
@@ -3748,7 +3748,7 @@
         <v>71</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>72</v>
@@ -3759,7 +3759,7 @@
         <v>71</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>36</v>
@@ -3770,7 +3770,7 @@
         <v>71</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>22</v>
@@ -3803,7 +3803,7 @@
         <v>73</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>74</v>
@@ -3814,7 +3814,7 @@
         <v>73</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>36</v>
@@ -3825,7 +3825,7 @@
         <v>73</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>22</v>
@@ -3836,7 +3836,7 @@
         <v>75</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>76</v>
@@ -3847,7 +3847,7 @@
         <v>75</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>77</v>
@@ -3858,7 +3858,7 @@
         <v>75</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>78</v>
@@ -3869,7 +3869,7 @@
         <v>75</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>23</v>
@@ -3880,7 +3880,7 @@
         <v>75</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>22</v>
@@ -3891,7 +3891,7 @@
         <v>79</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>80</v>
@@ -3902,7 +3902,7 @@
         <v>79</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>81</v>
@@ -3913,7 +3913,7 @@
         <v>79</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>82</v>
@@ -3924,7 +3924,7 @@
         <v>79</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>83</v>
@@ -3935,7 +3935,7 @@
         <v>79</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>84</v>
@@ -3946,7 +3946,7 @@
         <v>79</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>21</v>
@@ -3957,7 +3957,7 @@
         <v>79</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -3968,7 +3968,7 @@
         <v>100</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>85</v>
@@ -3979,7 +3979,7 @@
         <v>100</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>86</v>
@@ -3990,7 +3990,7 @@
         <v>100</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>87</v>
@@ -4001,7 +4001,7 @@
         <v>100</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>88</v>
@@ -4012,7 +4012,7 @@
         <v>100</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>89</v>
@@ -4023,7 +4023,7 @@
         <v>100</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>90</v>
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>91</v>
@@ -4045,7 +4045,7 @@
         <v>100</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>92</v>
@@ -4056,7 +4056,7 @@
         <v>100</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>93</v>
@@ -4067,7 +4067,7 @@
         <v>100</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>94</v>
@@ -4078,7 +4078,7 @@
         <v>100</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>95</v>
@@ -4089,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>96</v>
@@ -4100,7 +4100,7 @@
         <v>100</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>97</v>
@@ -4111,7 +4111,7 @@
         <v>100</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>98</v>
@@ -4122,7 +4122,7 @@
         <v>100</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>21</v>
@@ -4133,7 +4133,7 @@
         <v>100</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>99</v>
@@ -4144,7 +4144,7 @@
         <v>100</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>23</v>
@@ -4155,7 +4155,7 @@
         <v>115</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>101</v>
@@ -4166,7 +4166,7 @@
         <v>115</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>102</v>
@@ -4177,7 +4177,7 @@
         <v>115</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>103</v>
@@ -4188,7 +4188,7 @@
         <v>115</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>104</v>
@@ -4199,7 +4199,7 @@
         <v>115</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>105</v>
@@ -4210,7 +4210,7 @@
         <v>115</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>106</v>
@@ -4221,7 +4221,7 @@
         <v>115</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>107</v>
@@ -4232,7 +4232,7 @@
         <v>115</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>108</v>
@@ -4243,7 +4243,7 @@
         <v>115</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>109</v>
@@ -4254,7 +4254,7 @@
         <v>115</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>110</v>
@@ -4265,7 +4265,7 @@
         <v>115</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>111</v>
@@ -4276,7 +4276,7 @@
         <v>115</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>112</v>
@@ -4287,7 +4287,7 @@
         <v>115</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>113</v>
@@ -4298,7 +4298,7 @@
         <v>115</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>114</v>
@@ -4309,7 +4309,7 @@
         <v>115</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>21</v>
@@ -4320,7 +4320,7 @@
         <v>115</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>23</v>
@@ -4331,7 +4331,7 @@
         <v>116</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>80</v>
@@ -4342,7 +4342,7 @@
         <v>116</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>81</v>
@@ -4353,7 +4353,7 @@
         <v>116</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>82</v>
@@ -4364,7 +4364,7 @@
         <v>116</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>83</v>
@@ -4375,7 +4375,7 @@
         <v>116</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>84</v>
@@ -4386,7 +4386,7 @@
         <v>116</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>21</v>
@@ -4397,7 +4397,7 @@
         <v>116</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>23</v>
@@ -4408,7 +4408,7 @@
         <v>119</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>117</v>
@@ -4419,7 +4419,7 @@
         <v>119</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>118</v>
@@ -4430,7 +4430,7 @@
         <v>119</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>23</v>
@@ -4441,7 +4441,7 @@
         <v>119</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>22</v>
@@ -4452,7 +4452,7 @@
         <v>123</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>120</v>
@@ -4463,7 +4463,7 @@
         <v>123</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>121</v>
@@ -4474,7 +4474,7 @@
         <v>123</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>122</v>
@@ -4485,7 +4485,7 @@
         <v>123</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -4496,7 +4496,7 @@
         <v>125</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>124</v>
@@ -4507,7 +4507,7 @@
         <v>125</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>85</v>
@@ -4518,7 +4518,7 @@
         <v>125</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>86</v>
@@ -4529,7 +4529,7 @@
         <v>125</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>87</v>
@@ -4540,7 +4540,7 @@
         <v>125</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>88</v>
@@ -4551,7 +4551,7 @@
         <v>125</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>89</v>
@@ -4562,7 +4562,7 @@
         <v>125</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>90</v>
@@ -4573,7 +4573,7 @@
         <v>125</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>91</v>
@@ -4584,7 +4584,7 @@
         <v>125</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>92</v>
@@ -4595,7 +4595,7 @@
         <v>125</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>93</v>
@@ -4606,7 +4606,7 @@
         <v>125</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>94</v>
@@ -4617,7 +4617,7 @@
         <v>125</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>95</v>
@@ -4628,7 +4628,7 @@
         <v>125</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>96</v>
@@ -4639,7 +4639,7 @@
         <v>125</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>97</v>
@@ -4650,7 +4650,7 @@
         <v>125</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>21</v>
@@ -4661,7 +4661,7 @@
         <v>125</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>23</v>
@@ -4672,7 +4672,7 @@
         <v>130</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>126</v>
@@ -4683,7 +4683,7 @@
         <v>130</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>127</v>
@@ -4694,7 +4694,7 @@
         <v>130</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>128</v>
@@ -4705,7 +4705,7 @@
         <v>130</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>129</v>
@@ -4716,7 +4716,7 @@
         <v>130</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>120</v>
@@ -4727,7 +4727,7 @@
         <v>130</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>23</v>
@@ -4738,7 +4738,7 @@
         <v>136</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>131</v>
@@ -4749,7 +4749,7 @@
         <v>136</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>132</v>
@@ -4760,7 +4760,7 @@
         <v>136</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>133</v>
@@ -4771,7 +4771,7 @@
         <v>136</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>134</v>
@@ -4782,7 +4782,7 @@
         <v>136</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>135</v>
@@ -4793,7 +4793,7 @@
         <v>136</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>21</v>
@@ -4804,7 +4804,7 @@
         <v>136</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>23</v>
@@ -4815,7 +4815,7 @@
         <v>136</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>22</v>
@@ -4826,7 +4826,7 @@
         <v>139</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>137</v>
@@ -4837,7 +4837,7 @@
         <v>139</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>138</v>
@@ -4848,7 +4848,7 @@
         <v>139</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>23</v>
@@ -4859,7 +4859,7 @@
         <v>141</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>20</v>
@@ -4870,7 +4870,7 @@
         <v>141</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>19</v>
@@ -4881,7 +4881,7 @@
         <v>141</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>140</v>
@@ -4892,7 +4892,7 @@
         <v>141</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>23</v>
@@ -4903,7 +4903,7 @@
         <v>145</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>142</v>
@@ -4914,7 +4914,7 @@
         <v>145</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>143</v>
@@ -4925,7 +4925,7 @@
         <v>145</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>144</v>
@@ -4936,7 +4936,7 @@
         <v>145</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>16</v>
@@ -4947,7 +4947,7 @@
         <v>145</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>23</v>
@@ -4958,7 +4958,7 @@
         <v>145</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>22</v>
@@ -4969,7 +4969,7 @@
         <v>146</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>147</v>
@@ -4980,7 +4980,7 @@
         <v>146</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>148</v>
@@ -4991,7 +4991,7 @@
         <v>146</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>149</v>
@@ -5002,7 +5002,7 @@
         <v>146</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>150</v>
@@ -5013,7 +5013,7 @@
         <v>146</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>21</v>
@@ -5024,7 +5024,7 @@
         <v>146</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>23</v>
@@ -5035,7 +5035,7 @@
         <v>155</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>151</v>
@@ -5046,7 +5046,7 @@
         <v>155</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>152</v>
@@ -5057,7 +5057,7 @@
         <v>155</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>153</v>
@@ -5068,7 +5068,7 @@
         <v>155</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>154</v>
@@ -5079,7 +5079,7 @@
         <v>155</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>21</v>
@@ -5090,7 +5090,7 @@
         <v>155</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>23</v>
@@ -5101,7 +5101,7 @@
         <v>155</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>22</v>
@@ -5112,7 +5112,7 @@
         <v>158</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>147</v>
@@ -5123,7 +5123,7 @@
         <v>158</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>156</v>
@@ -5134,7 +5134,7 @@
         <v>158</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>157</v>
@@ -5145,7 +5145,7 @@
         <v>158</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>23</v>
@@ -5156,7 +5156,7 @@
         <v>158</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>22</v>
@@ -5167,7 +5167,7 @@
         <v>159</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>29</v>
@@ -5178,7 +5178,7 @@
         <v>159</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>30</v>
@@ -5189,7 +5189,7 @@
         <v>17</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>19</v>
@@ -5200,7 +5200,7 @@
         <v>17</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>20</v>
@@ -5211,7 +5211,7 @@
         <v>161</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>29</v>
@@ -5222,7 +5222,7 @@
         <v>161</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>30</v>
@@ -5233,7 +5233,7 @@
         <v>161</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>160</v>
@@ -5244,7 +5244,7 @@
         <v>162</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>15</v>
@@ -5255,7 +5255,7 @@
         <v>162</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>16</v>
@@ -5266,7 +5266,7 @@
         <v>162</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>163</v>
@@ -5277,7 +5277,7 @@
         <v>210</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>211</v>
@@ -5288,7 +5288,7 @@
         <v>245</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>246</v>
@@ -5299,7 +5299,7 @@
         <v>245</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>23</v>
@@ -5333,13 +5333,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s">
         <v>312</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>313</v>
-      </c>
-      <c r="C1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5352,7 +5352,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -5360,18 +5360,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" t="s">
         <v>316</v>
-      </c>
-      <c r="C4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" t="s">
         <v>318</v>
-      </c>
-      <c r="B5" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5418,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5426,7 +5426,7 @@
         <v>305</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5663,7 +5663,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>296</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>297</v>
@@ -5714,7 +5714,7 @@
         <v>306</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5722,7 +5722,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5730,7 +5730,7 @@
         <v>305</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
@@ -5738,7 +5738,7 @@
         <v>306</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5746,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5778,7 +5778,7 @@
         <v>305</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5786,7 +5786,7 @@
         <v>305</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5794,7 +5794,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5802,7 +5802,7 @@
         <v>305</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5810,15 +5810,15 @@
         <v>9</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5826,7 +5826,7 @@
         <v>305</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5834,7 +5834,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
@@ -5842,7 +5842,7 @@
         <v>306</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5850,7 +5850,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5858,7 +5858,7 @@
         <v>305</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5866,7 +5866,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5874,7 +5874,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5882,7 +5882,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5890,7 +5890,7 @@
         <v>305</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5898,15 +5898,15 @@
         <v>305</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B64" s="25" t="s">
         <v>366</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5914,7 +5914,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
